--- a/Assignment/HLR excel sheet/hlr for problem user.xlsx
+++ b/Assignment/HLR excel sheet/hlr for problem user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\Assignment\HLR excel sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18DBCA8-46BF-40F8-85F2-6D0CE44E9210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DB72C6-7E72-4306-968E-64B318769821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>functionality id</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>while clicking on the cancel button, it is working properly, and also had opened.</t>
+  </si>
+  <si>
+    <t>check twitter icon</t>
+  </si>
+  <si>
+    <t>while clicking on twitter icon, it its working properly, and also had opened.</t>
+  </si>
+  <si>
+    <t>check facebook icon</t>
+  </si>
+  <si>
+    <t>while clicking on facebook icon, it its working properly, and also had opened.</t>
+  </si>
+  <si>
+    <t>check linkedin icon</t>
+  </si>
+  <si>
+    <t>while clicking on linkedin icon, it its working properly, and also had opened.</t>
   </si>
 </sst>
 </file>
@@ -691,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,14 +942,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+    <row r="21" spans="1:3" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
         <v>42</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="23" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1034,31 +1052,49 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>69</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>70</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>71</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="1:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="1:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
     </row>
     <row r="35" spans="1:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
@@ -1079,6 +1115,21 @@
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
+    </row>
+    <row r="39" spans="1:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+    </row>
+    <row r="40" spans="1:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+    </row>
+    <row r="41" spans="1:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assignment/HLR excel sheet/hlr for problem user.xlsx
+++ b/Assignment/HLR excel sheet/hlr for problem user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\Assignment\HLR excel sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DB72C6-7E72-4306-968E-64B318769821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62CA724-3BA3-422C-968D-9784ABD66647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
